--- a/doc/南丁格尔（簇状）接口说明.xlsx
+++ b/doc/南丁格尔（簇状）接口说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>是否显示Y坐标轴</t>
+  </si>
+  <si>
+    <t>isShowYText</t>
+  </si>
+  <si>
+    <t>是否显示刻度数字</t>
+  </si>
+  <si>
+    <t>maxY</t>
+  </si>
+  <si>
+    <t>最大刻度值</t>
   </si>
   <si>
     <t>isShowLabel</t>
@@ -313,22 +325,13 @@
     <t>图例位置</t>
   </si>
   <si>
-    <t>legendHeightRatio</t>
+    <t>legendRatio</t>
   </si>
   <si>
     <t>0.02</t>
   </si>
   <si>
     <t>图例高度，画布占比</t>
-  </si>
-  <si>
-    <t>legendWidthRatio</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>图例宽度，画布占比</t>
   </si>
   <si>
     <t>legendMargin</t>
@@ -2280,7 +2283,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2517,7 +2520,7 @@
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" ht="22.15" customHeight="1">
+    <row r="16" ht="22.35" customHeight="1">
       <c r="A16" t="s" s="29">
         <v>46</v>
       </c>
@@ -2532,12 +2535,12 @@
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
     </row>
-    <row r="17" ht="22.15" customHeight="1">
+    <row r="17" ht="22.35" customHeight="1">
       <c r="A17" t="s" s="29">
         <v>48</v>
       </c>
-      <c r="B17" t="s" s="33">
-        <v>35</v>
+      <c r="B17" s="30">
+        <v>500</v>
       </c>
       <c r="C17" t="s" s="31">
         <v>49</v>
@@ -2547,42 +2550,42 @@
       <c r="F17" s="32"/>
       <c r="G17" s="32"/>
     </row>
-    <row r="18" ht="31.25" customHeight="1">
+    <row r="18" ht="22.15" customHeight="1">
       <c r="A18" t="s" s="29">
         <v>50</v>
       </c>
       <c r="B18" t="s" s="33">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s" s="31">
         <v>51</v>
-      </c>
-      <c r="C18" t="s" s="31">
-        <v>52</v>
       </c>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
       <c r="G18" s="32"/>
     </row>
-    <row r="19" ht="22.35" customHeight="1">
+    <row r="19" ht="22.15" customHeight="1">
       <c r="A19" t="s" s="29">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s" s="33">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s" s="31">
         <v>53</v>
-      </c>
-      <c r="B19" s="30">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s" s="31">
-        <v>54</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
       <c r="F19" s="32"/>
       <c r="G19" s="32"/>
     </row>
-    <row r="20" ht="36.95" customHeight="1">
+    <row r="20" ht="31.25" customHeight="1">
       <c r="A20" t="s" s="29">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s" s="33">
         <v>55</v>
-      </c>
-      <c r="B20" t="s" s="33">
-        <v>38</v>
       </c>
       <c r="C20" t="s" s="31">
         <v>56</v>
@@ -2596,26 +2599,26 @@
       <c r="A21" t="s" s="29">
         <v>57</v>
       </c>
-      <c r="B21" t="s" s="33">
+      <c r="B21" s="30">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s" s="31">
         <v>58</v>
-      </c>
-      <c r="C21" t="s" s="31">
-        <v>59</v>
       </c>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
     </row>
-    <row r="22" ht="22.35" customHeight="1">
+    <row r="22" ht="36.95" customHeight="1">
       <c r="A22" t="s" s="29">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s" s="33">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s" s="31">
         <v>60</v>
-      </c>
-      <c r="B22" t="s" s="33">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s" s="31">
-        <v>62</v>
       </c>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
@@ -2624,13 +2627,13 @@
     </row>
     <row r="23" ht="22.35" customHeight="1">
       <c r="A23" t="s" s="29">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s" s="31">
         <v>63</v>
-      </c>
-      <c r="B23" t="s" s="33">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s" s="31">
-        <v>64</v>
       </c>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
@@ -2639,10 +2642,10 @@
     </row>
     <row r="24" ht="22.35" customHeight="1">
       <c r="A24" t="s" s="29">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s" s="33">
         <v>65</v>
-      </c>
-      <c r="B24" s="30">
-        <v>0</v>
       </c>
       <c r="C24" t="s" s="31">
         <v>66</v>
@@ -2657,10 +2660,10 @@
         <v>67</v>
       </c>
       <c r="B25" t="s" s="33">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s" s="31">
         <v>68</v>
-      </c>
-      <c r="C25" t="s" s="31">
-        <v>69</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
@@ -2669,13 +2672,13 @@
     </row>
     <row r="26" ht="22.35" customHeight="1">
       <c r="A26" t="s" s="29">
+        <v>69</v>
+      </c>
+      <c r="B26" s="30">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s" s="31">
         <v>70</v>
-      </c>
-      <c r="B26" s="30">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s" s="31">
-        <v>71</v>
       </c>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
@@ -2684,10 +2687,10 @@
     </row>
     <row r="27" ht="22.35" customHeight="1">
       <c r="A27" t="s" s="29">
+        <v>71</v>
+      </c>
+      <c r="B27" t="s" s="33">
         <v>72</v>
-      </c>
-      <c r="B27" t="s" s="33">
-        <v>58</v>
       </c>
       <c r="C27" t="s" s="31">
         <v>73</v>
@@ -2701,26 +2704,26 @@
       <c r="A28" t="s" s="29">
         <v>74</v>
       </c>
-      <c r="B28" t="s" s="33">
+      <c r="B28" s="30">
+        <v>12</v>
+      </c>
+      <c r="C28" t="s" s="31">
         <v>75</v>
-      </c>
-      <c r="C28" t="s" s="31">
-        <v>76</v>
       </c>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" ht="25.15" customHeight="1">
+    <row r="29" ht="22.35" customHeight="1">
       <c r="A29" t="s" s="29">
+        <v>76</v>
+      </c>
+      <c r="B29" t="s" s="33">
+        <v>62</v>
+      </c>
+      <c r="C29" t="s" s="31">
         <v>77</v>
-      </c>
-      <c r="B29" t="s" s="33">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s" s="31">
-        <v>78</v>
       </c>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
@@ -2729,10 +2732,10 @@
     </row>
     <row r="30" ht="22.35" customHeight="1">
       <c r="A30" t="s" s="29">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s" s="33">
         <v>79</v>
-      </c>
-      <c r="B30" s="34">
-        <v>0</v>
       </c>
       <c r="C30" t="s" s="31">
         <v>80</v>
@@ -2742,12 +2745,12 @@
       <c r="F30" s="32"/>
       <c r="G30" s="32"/>
     </row>
-    <row r="31" ht="22.35" customHeight="1">
+    <row r="31" ht="25.15" customHeight="1">
       <c r="A31" t="s" s="29">
         <v>81</v>
       </c>
       <c r="B31" t="s" s="33">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s" s="31">
         <v>82</v>
@@ -2757,25 +2760,27 @@
       <c r="F31" s="32"/>
       <c r="G31" s="32"/>
     </row>
-    <row r="32" ht="19.9" customHeight="1" hidden="1">
-      <c r="A32" t="s" s="35">
+    <row r="32" ht="22.35" customHeight="1">
+      <c r="A32" t="s" s="29">
         <v>83</v>
       </c>
-      <c r="B32" s="36">
-        <v>1</v>
-      </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
+      <c r="B32" s="34">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="31">
+        <v>84</v>
+      </c>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" ht="22.35" customHeight="1">
       <c r="A33" t="s" s="29">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s" s="33">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s" s="31">
         <v>86</v>
@@ -2785,27 +2790,25 @@
       <c r="F33" s="32"/>
       <c r="G33" s="32"/>
     </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" t="s" s="29">
+    <row r="34" ht="19.9" customHeight="1" hidden="1">
+      <c r="A34" t="s" s="35">
         <v>87</v>
       </c>
-      <c r="B34" t="s" s="33">
-        <v>68</v>
-      </c>
-      <c r="C34" t="s" s="31">
-        <v>88</v>
-      </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
+      <c r="B34" s="36">
+        <v>1</v>
+      </c>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
     </row>
     <row r="35" ht="22.35" customHeight="1">
       <c r="A35" t="s" s="29">
+        <v>88</v>
+      </c>
+      <c r="B35" t="s" s="33">
         <v>89</v>
-      </c>
-      <c r="B35" t="s" s="33">
-        <v>32</v>
       </c>
       <c r="C35" t="s" s="31">
         <v>90</v>
@@ -2815,12 +2818,12 @@
       <c r="F35" s="32"/>
       <c r="G35" s="32"/>
     </row>
-    <row r="36" ht="31.25" customHeight="1">
+    <row r="36" ht="22.35" customHeight="1">
       <c r="A36" t="s" s="29">
         <v>91</v>
       </c>
       <c r="B36" t="s" s="33">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s" s="31">
         <v>92</v>
@@ -2830,75 +2833,75 @@
       <c r="F36" s="32"/>
       <c r="G36" s="32"/>
     </row>
-    <row r="37" ht="117.35" customHeight="1">
+    <row r="37" ht="22.35" customHeight="1">
       <c r="A37" t="s" s="29">
         <v>93</v>
       </c>
       <c r="B37" t="s" s="33">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s" s="31">
         <v>94</v>
-      </c>
-      <c r="C37" t="s" s="31">
-        <v>95</v>
       </c>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
       <c r="F37" s="32"/>
       <c r="G37" s="32"/>
     </row>
-    <row r="38" ht="22.15" customHeight="1">
+    <row r="38" ht="31.25" customHeight="1">
       <c r="A38" t="s" s="29">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s" s="33">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s" s="31">
         <v>96</v>
-      </c>
-      <c r="B38" t="s" s="33">
-        <v>97</v>
-      </c>
-      <c r="C38" t="s" s="31">
-        <v>98</v>
       </c>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
       <c r="F38" s="32"/>
       <c r="G38" s="32"/>
     </row>
-    <row r="39" ht="17" customHeight="1">
+    <row r="39" ht="117.35" customHeight="1">
       <c r="A39" t="s" s="29">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s" s="33">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s" s="31">
         <v>99</v>
-      </c>
-      <c r="B39" t="s" s="33">
-        <v>100</v>
-      </c>
-      <c r="C39" t="s" s="31">
-        <v>101</v>
       </c>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
       <c r="F39" s="32"/>
       <c r="G39" s="32"/>
     </row>
-    <row r="40" ht="20" customHeight="1">
+    <row r="40" ht="22.15" customHeight="1">
       <c r="A40" t="s" s="29">
+        <v>100</v>
+      </c>
+      <c r="B40" t="s" s="33">
+        <v>101</v>
+      </c>
+      <c r="C40" t="s" s="31">
         <v>102</v>
-      </c>
-      <c r="B40" t="s" s="33">
-        <v>26</v>
-      </c>
-      <c r="C40" t="s" s="31">
-        <v>103</v>
       </c>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
       <c r="F40" s="32"/>
       <c r="G40" s="32"/>
     </row>
-    <row r="41" ht="20.3" customHeight="1">
+    <row r="41" ht="20" customHeight="1">
       <c r="A41" t="s" s="29">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" t="s" s="33">
         <v>26</v>
       </c>
       <c r="C41" t="s" s="31">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
@@ -2907,13 +2910,13 @@
     </row>
     <row r="42" ht="20.3" customHeight="1">
       <c r="A42" t="s" s="29">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s" s="33">
+        <v>26</v>
+      </c>
+      <c r="C42" t="s" s="31">
         <v>106</v>
-      </c>
-      <c r="B42" t="s" s="33">
-        <v>51</v>
-      </c>
-      <c r="C42" t="s" s="31">
-        <v>107</v>
       </c>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
@@ -2922,13 +2925,13 @@
     </row>
     <row r="43" ht="20.3" customHeight="1">
       <c r="A43" t="s" s="29">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s" s="33">
+        <v>55</v>
+      </c>
+      <c r="C43" t="s" s="31">
         <v>108</v>
-      </c>
-      <c r="B43" t="s" s="33">
-        <v>109</v>
-      </c>
-      <c r="C43" t="s" s="31">
-        <v>110</v>
       </c>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
@@ -2937,13 +2940,13 @@
     </row>
     <row r="44" ht="20.3" customHeight="1">
       <c r="A44" t="s" s="29">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s" s="33">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s" s="31">
         <v>111</v>
-      </c>
-      <c r="B44" t="s" s="33">
-        <v>109</v>
-      </c>
-      <c r="C44" t="s" s="31">
-        <v>112</v>
       </c>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
@@ -2952,13 +2955,13 @@
     </row>
     <row r="45" ht="20.3" customHeight="1">
       <c r="A45" t="s" s="29">
+        <v>112</v>
+      </c>
+      <c r="B45" t="s" s="33">
+        <v>110</v>
+      </c>
+      <c r="C45" t="s" s="31">
         <v>113</v>
-      </c>
-      <c r="B45" t="s" s="33">
-        <v>109</v>
-      </c>
-      <c r="C45" t="s" s="31">
-        <v>114</v>
       </c>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
@@ -2967,18 +2970,33 @@
     </row>
     <row r="46" ht="20.3" customHeight="1">
       <c r="A46" t="s" s="29">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s" s="33">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s" s="31">
         <v>115</v>
-      </c>
-      <c r="B46" t="s" s="33">
-        <v>109</v>
-      </c>
-      <c r="C46" t="s" s="31">
-        <v>116</v>
       </c>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
       <c r="F46" s="32"/>
       <c r="G46" s="32"/>
+    </row>
+    <row r="47" ht="20.3" customHeight="1">
+      <c r="A47" t="s" s="29">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s" s="33">
+        <v>110</v>
+      </c>
+      <c r="C47" t="s" s="31">
+        <v>117</v>
+      </c>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/南丁格尔（簇状）接口说明.xlsx
+++ b/doc/南丁格尔（簇状）接口说明.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>此文稿由 Numbers 导出。所有表格均已转换为 Excel 工作表。每张 Numbers 工作表上的所有其他对象都已放置在分开的工作表中。请注意其中的公式计算可能与 Excel 不尽相同。</t>
   </si>
@@ -34,13 +34,29 @@
     <t>表格 1</t>
   </si>
   <si>
-    <t>工作表 1 - 表格 1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>工作表 1 - 表格 1</t>
+    </r>
   </si>
   <si>
     <t>表格 1-1</t>
   </si>
   <si>
-    <t>工作表 1 - 表格 1-1</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="12"/>
+        <color indexed="13"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>工作表 1 - 表格 1-1</t>
+    </r>
   </si>
   <si>
     <t>属性</t>
@@ -166,6 +182,12 @@
   </si>
   <si>
     <t>最大刻度值</t>
+  </si>
+  <si>
+    <t>minY</t>
+  </si>
+  <si>
+    <t>最小刻度值</t>
   </si>
   <si>
     <t>isShowLabel</t>
@@ -377,6 +399,96 @@
   </si>
   <si>
     <t>分类扇形背景色</t>
+  </si>
+  <si>
+    <t>backgroundColor</t>
+  </si>
+  <si>
+    <t>#333</t>
+  </si>
+  <si>
+    <t>组件背景颜色</t>
+  </si>
+  <si>
+    <t>legendType</t>
+  </si>
+  <si>
+    <t>‘kpi’, ‘CPI’</t>
+  </si>
+  <si>
+    <t>图例key</t>
+  </si>
+  <si>
+    <t>rotate</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>旋转角度</t>
+  </si>
+  <si>
+    <t>isShowTitle</t>
+  </si>
+  <si>
+    <t>是否展示标题</t>
+  </si>
+  <si>
+    <t>titleContent</t>
+  </si>
+  <si>
+    <t>组件标题</t>
+  </si>
+  <si>
+    <t>titleHeight</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>标题高度</t>
+  </si>
+  <si>
+    <t>titlePosition</t>
+  </si>
+  <si>
+    <t>left， center， right</t>
+  </si>
+  <si>
+    <t>标题位置</t>
+  </si>
+  <si>
+    <t>titleFontSize</t>
+  </si>
+  <si>
+    <t>标题字体大小</t>
+  </si>
+  <si>
+    <t>titleFontColor</t>
+  </si>
+  <si>
+    <t>#fff</t>
+  </si>
+  <si>
+    <t>标题字体颜色</t>
+  </si>
+  <si>
+    <t>titleFontWeight</t>
+  </si>
+  <si>
+    <t>标题字体粗细</t>
+  </si>
+  <si>
+    <t>titleBackground</t>
+  </si>
+  <si>
+    <t>标题背景颜色</t>
+  </si>
+  <si>
+    <t>titleBorder</t>
+  </si>
+  <si>
+    <t>标题边框颜色</t>
   </si>
 </sst>
 </file>
@@ -398,6 +510,11 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -405,7 +522,7 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="11"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -414,13 +531,8 @@
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -429,13 +541,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -453,24 +565,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="16"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="19"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="21"/>
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -480,13 +580,122 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="9"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -495,7 +704,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -504,7 +713,7 @@
         <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,43 +722,28 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
+        <color indexed="16"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,41 +752,103 @@
         <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="16"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="17"/>
+        <color indexed="16"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="18"/>
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,174 +856,9 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="17"/>
+        <color indexed="14"/>
       </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="17"/>
-      </right>
-      <top style="thin">
-        <color indexed="17"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="20"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="20"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="20"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="20"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="20"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="20"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="18"/>
-      </left>
-      <right style="thin">
-        <color indexed="18"/>
-      </right>
-      <top style="thin">
-        <color indexed="18"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="18"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -776,27 +867,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -805,82 +886,142 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="7" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -900,15 +1041,11 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="015e88b1"/>
-      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ff5e88b1"/>
+      <rgbColor rgb="ffeef3f4"/>
       <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ff3f3f3f"/>
@@ -929,10 +1066,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -1109,11 +1246,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1122,7 +1262,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1137,12 +1277,12 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
             <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -1399,10 +1539,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1693,7 +1833,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1971,66 +2111,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="4" width="33.6016" customWidth="1"/>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.6719" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.6719" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.6719" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="256" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.7" customHeight="1">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
     <row r="3" ht="50" customHeight="1">
-      <c r="B3" t="s" s="1">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s" s="8">
         <v>0</v>
       </c>
-      <c r="C3"/>
-      <c r="D3"/>
-    </row>
-    <row r="7">
-      <c r="B7" t="s" s="2">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" ht="14.7" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1">
+      <c r="A7" s="5"/>
+      <c r="B7" t="s" s="9">
         <v>1</v>
       </c>
-      <c r="C7" t="s" s="2">
+      <c r="C7" t="s" s="9">
         <v>2</v>
       </c>
-      <c r="D7" t="s" s="2">
+      <c r="D7" t="s" s="9">
         <v>3</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s" s="3">
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" ht="16.65" customHeight="1">
+      <c r="A9" s="5"/>
+      <c r="B9" t="s" s="10">
         <v>4</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="4"/>
-      <c r="C10" t="s" s="4">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" t="s" s="13">
         <v>5</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" t="s" s="14">
         <v>6</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4"/>
-      <c r="C11" t="s" s="4">
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" ht="20" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" t="s" s="17">
         <v>7</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" t="s" s="18">
         <v>8</v>
       </c>
+      <c r="E11" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="D10" location="'工作表 1 - 表格 1'!R2C1" tooltip="" display="工作表 1 - 表格 1"/>
-    <hyperlink ref="D11" location="'工作表 1 - 表格 1-1'!R1C1" tooltip="" display="工作表 1 - 表格 1-1"/>
-  </hyperlinks>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2039,232 +2240,230 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="6" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="6" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.3516" style="20" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.3516" style="20" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="20" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="20" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="20" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="20" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="7">
+      <c r="A1" t="s" s="21">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2283,720 +2482,933 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.5859" style="15" customWidth="1"/>
-    <col min="2" max="2" width="26.2109" style="15" customWidth="1"/>
-    <col min="3" max="3" width="29.3828" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="15" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="15" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="15" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="15" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="15" customWidth="1"/>
+    <col min="1" max="1" width="19.6719" style="31" customWidth="1"/>
+    <col min="2" max="2" width="26.1719" style="31" customWidth="1"/>
+    <col min="3" max="3" width="29.3516" style="31" customWidth="1"/>
+    <col min="4" max="4" width="16.3516" style="31" customWidth="1"/>
+    <col min="5" max="5" width="16.3516" style="31" customWidth="1"/>
+    <col min="6" max="6" width="16.3516" style="31" customWidth="1"/>
+    <col min="7" max="7" width="16.3516" style="31" customWidth="1"/>
+    <col min="8" max="256" width="16.3516" style="31" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="16">
+      <c r="A1" t="s" s="32">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="19">
+      <c r="A2" t="s" s="33">
         <v>9</v>
       </c>
-      <c r="B2" t="s" s="19">
+      <c r="B2" t="s" s="33">
         <v>10</v>
       </c>
-      <c r="C2" t="s" s="19">
+      <c r="C2" t="s" s="33">
         <v>11</v>
       </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" ht="31.25" customHeight="1">
-      <c r="A3" t="s" s="21">
+      <c r="A3" t="s" s="35">
         <v>12</v>
       </c>
-      <c r="B3" t="s" s="22">
+      <c r="B3" t="s" s="36">
         <v>13</v>
       </c>
-      <c r="C3" t="s" s="23">
+      <c r="C3" t="s" s="37">
         <v>14</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" ht="22.55" customHeight="1">
-      <c r="A4" t="s" s="25">
+      <c r="A4" t="s" s="39">
         <v>15</v>
       </c>
-      <c r="B4" s="26">
+      <c r="B4" s="40">
         <v>600</v>
       </c>
-      <c r="C4" t="s" s="27">
+      <c r="C4" t="s" s="41">
         <v>16</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
     </row>
     <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="29">
+      <c r="A5" t="s" s="43">
         <v>17</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="44">
         <v>600</v>
       </c>
-      <c r="C5" t="s" s="31">
+      <c r="C5" t="s" s="45">
         <v>18</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="29">
+      <c r="A6" t="s" s="43">
         <v>19</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="44">
         <v>1.5</v>
       </c>
-      <c r="C6" t="s" s="31">
+      <c r="C6" t="s" s="45">
         <v>20</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="29">
+      <c r="A7" t="s" s="43">
         <v>21</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="44">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="31">
+      <c r="C7" t="s" s="45">
         <v>22</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="29">
+      <c r="A8" t="s" s="43">
         <v>23</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="44">
         <v>0.2</v>
       </c>
-      <c r="C8" t="s" s="31">
+      <c r="C8" t="s" s="45">
         <v>24</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="29">
+      <c r="A9" t="s" s="43">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="33">
+      <c r="B9" t="s" s="47">
         <v>26</v>
       </c>
-      <c r="C9" t="s" s="31">
+      <c r="C9" t="s" s="45">
         <v>27</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="29">
+      <c r="A10" t="s" s="43">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="33">
+      <c r="B10" t="s" s="47">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="31">
+      <c r="C10" t="s" s="45">
         <v>30</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" t="s" s="29">
+      <c r="A11" t="s" s="43">
         <v>31</v>
       </c>
-      <c r="B11" t="s" s="33">
+      <c r="B11" t="s" s="47">
         <v>32</v>
       </c>
-      <c r="C11" t="s" s="31">
+      <c r="C11" t="s" s="45">
         <v>33</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" t="s" s="29">
+      <c r="A12" t="s" s="43">
         <v>34</v>
       </c>
-      <c r="B12" t="s" s="33">
+      <c r="B12" t="s" s="47">
         <v>35</v>
       </c>
-      <c r="C12" t="s" s="31">
+      <c r="C12" t="s" s="45">
         <v>36</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" ht="31.25" customHeight="1">
-      <c r="A13" t="s" s="29">
+      <c r="A13" t="s" s="43">
         <v>37</v>
       </c>
-      <c r="B13" t="s" s="33">
+      <c r="B13" t="s" s="47">
         <v>38</v>
       </c>
-      <c r="C13" t="s" s="31">
+      <c r="C13" t="s" s="45">
         <v>39</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="29">
+      <c r="A14" t="s" s="43">
         <v>40</v>
       </c>
-      <c r="B14" t="s" s="33">
+      <c r="B14" t="s" s="47">
         <v>41</v>
       </c>
-      <c r="C14" t="s" s="31">
+      <c r="C14" t="s" s="45">
         <v>42</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" t="s" s="29">
+      <c r="A15" t="s" s="43">
         <v>43</v>
       </c>
-      <c r="B15" t="s" s="33">
+      <c r="B15" t="s" s="47">
         <v>44</v>
       </c>
-      <c r="C15" t="s" s="31">
+      <c r="C15" t="s" s="45">
         <v>45</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" t="s" s="29">
+      <c r="A16" t="s" s="43">
         <v>46</v>
       </c>
-      <c r="B16" t="s" s="33">
+      <c r="B16" t="s" s="47">
         <v>44</v>
       </c>
-      <c r="C16" t="s" s="31">
+      <c r="C16" t="s" s="45">
         <v>47</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" t="s" s="29">
+      <c r="A17" t="s" s="43">
         <v>48</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="44">
         <v>500</v>
       </c>
-      <c r="C17" t="s" s="31">
+      <c r="C17" t="s" s="45">
         <v>49</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-    </row>
-    <row r="18" ht="22.15" customHeight="1">
-      <c r="A18" t="s" s="29">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" ht="22.35" customHeight="1">
+      <c r="A18" t="s" s="43">
         <v>50</v>
       </c>
-      <c r="B18" t="s" s="33">
+      <c r="B18" s="44">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="45">
+        <v>51</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" ht="22.15" customHeight="1">
+      <c r="A19" t="s" s="43">
+        <v>52</v>
+      </c>
+      <c r="B19" t="s" s="47">
         <v>44</v>
       </c>
-      <c r="C18" t="s" s="31">
-        <v>51</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-    </row>
-    <row r="19" ht="22.15" customHeight="1">
-      <c r="A19" t="s" s="29">
-        <v>52</v>
-      </c>
-      <c r="B19" t="s" s="33">
+      <c r="C19" t="s" s="45">
+        <v>53</v>
+      </c>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" ht="22.15" customHeight="1">
+      <c r="A20" t="s" s="43">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s" s="47">
         <v>35</v>
       </c>
-      <c r="C19" t="s" s="31">
-        <v>53</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-    </row>
-    <row r="20" ht="31.25" customHeight="1">
-      <c r="A20" t="s" s="29">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s" s="33">
+      <c r="C20" t="s" s="45">
         <v>55</v>
       </c>
-      <c r="C20" t="s" s="31">
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" ht="31.25" customHeight="1">
+      <c r="A21" t="s" s="43">
         <v>56</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-    </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" t="s" s="29">
+      <c r="B21" t="s" s="47">
         <v>57</v>
       </c>
-      <c r="B21" s="30">
+      <c r="C21" t="s" s="45">
+        <v>58</v>
+      </c>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" ht="22.35" customHeight="1">
+      <c r="A22" t="s" s="43">
+        <v>59</v>
+      </c>
+      <c r="B22" s="44">
         <v>16</v>
       </c>
-      <c r="C21" t="s" s="31">
-        <v>58</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-    </row>
-    <row r="22" ht="36.95" customHeight="1">
-      <c r="A22" t="s" s="29">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s" s="33">
+      <c r="C22" t="s" s="45">
+        <v>60</v>
+      </c>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" ht="36.95" customHeight="1">
+      <c r="A23" t="s" s="43">
+        <v>61</v>
+      </c>
+      <c r="B23" t="s" s="47">
         <v>38</v>
       </c>
-      <c r="C22" t="s" s="31">
-        <v>60</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-    </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" t="s" s="29">
-        <v>61</v>
-      </c>
-      <c r="B23" t="s" s="33">
+      <c r="C23" t="s" s="45">
         <v>62</v>
       </c>
-      <c r="C23" t="s" s="31">
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" ht="22.35" customHeight="1">
+      <c r="A24" t="s" s="43">
         <v>63</v>
       </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-    </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" t="s" s="29">
+      <c r="B24" t="s" s="47">
         <v>64</v>
       </c>
-      <c r="B24" t="s" s="33">
+      <c r="C24" t="s" s="45">
         <v>65</v>
       </c>
-      <c r="C24" t="s" s="31">
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" ht="22.35" customHeight="1">
+      <c r="A25" t="s" s="43">
         <v>66</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-    </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" t="s" s="29">
+      <c r="B25" t="s" s="47">
         <v>67</v>
       </c>
-      <c r="B25" t="s" s="33">
+      <c r="C25" t="s" s="45">
+        <v>68</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" ht="22.35" customHeight="1">
+      <c r="A26" t="s" s="43">
+        <v>69</v>
+      </c>
+      <c r="B26" t="s" s="47">
         <v>44</v>
       </c>
-      <c r="C25" t="s" s="31">
-        <v>68</v>
-      </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-    </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" t="s" s="29">
-        <v>69</v>
-      </c>
-      <c r="B26" s="30">
+      <c r="C26" t="s" s="45">
+        <v>70</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+    </row>
+    <row r="27" ht="22.35" customHeight="1">
+      <c r="A27" t="s" s="43">
+        <v>71</v>
+      </c>
+      <c r="B27" s="44">
         <v>0</v>
       </c>
-      <c r="C26" t="s" s="31">
-        <v>70</v>
-      </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-    </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" t="s" s="29">
-        <v>71</v>
-      </c>
-      <c r="B27" t="s" s="33">
+      <c r="C27" t="s" s="45">
         <v>72</v>
       </c>
-      <c r="C27" t="s" s="31">
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+    </row>
+    <row r="28" ht="22.35" customHeight="1">
+      <c r="A28" t="s" s="43">
         <v>73</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="29">
+      <c r="B28" t="s" s="47">
         <v>74</v>
       </c>
-      <c r="B28" s="30">
+      <c r="C28" t="s" s="45">
+        <v>75</v>
+      </c>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" ht="22.35" customHeight="1">
+      <c r="A29" t="s" s="43">
+        <v>76</v>
+      </c>
+      <c r="B29" s="44">
         <v>12</v>
       </c>
-      <c r="C28" t="s" s="31">
-        <v>75</v>
-      </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-    </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" t="s" s="29">
-        <v>76</v>
-      </c>
-      <c r="B29" t="s" s="33">
-        <v>62</v>
-      </c>
-      <c r="C29" t="s" s="31">
+      <c r="C29" t="s" s="45">
         <v>77</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" t="s" s="29">
+      <c r="A30" t="s" s="43">
         <v>78</v>
       </c>
-      <c r="B30" t="s" s="33">
+      <c r="B30" t="s" s="47">
+        <v>64</v>
+      </c>
+      <c r="C30" t="s" s="45">
         <v>79</v>
       </c>
-      <c r="C30" t="s" s="31">
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+    </row>
+    <row r="31" ht="22.35" customHeight="1">
+      <c r="A31" t="s" s="43">
         <v>80</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" ht="25.15" customHeight="1">
-      <c r="A31" t="s" s="29">
+      <c r="B31" t="s" s="47">
         <v>81</v>
       </c>
-      <c r="B31" t="s" s="33">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s" s="31">
+      <c r="C31" t="s" s="45">
         <v>82</v>
       </c>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" t="s" s="29">
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+    </row>
+    <row r="32" ht="25.15" customHeight="1">
+      <c r="A32" t="s" s="43">
         <v>83</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" t="s" s="47">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s" s="45">
+        <v>84</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+    </row>
+    <row r="33" ht="22.35" customHeight="1">
+      <c r="A33" t="s" s="43">
+        <v>85</v>
+      </c>
+      <c r="B33" s="48">
         <v>0</v>
       </c>
-      <c r="C32" t="s" s="31">
-        <v>84</v>
-      </c>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-    </row>
-    <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" t="s" s="29">
-        <v>85</v>
-      </c>
-      <c r="B33" t="s" s="33">
+      <c r="C33" t="s" s="45">
+        <v>86</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="46"/>
+      <c r="G33" s="46"/>
+    </row>
+    <row r="34" ht="22.35" customHeight="1">
+      <c r="A34" t="s" s="43">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s" s="47">
         <v>44</v>
       </c>
-      <c r="C33" t="s" s="31">
-        <v>86</v>
-      </c>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-    </row>
-    <row r="34" ht="19.9" customHeight="1" hidden="1">
-      <c r="A34" t="s" s="35">
-        <v>87</v>
-      </c>
-      <c r="B34" s="36">
+      <c r="C34" t="s" s="45">
+        <v>88</v>
+      </c>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+    </row>
+    <row r="35" ht="19.9" customHeight="1" hidden="1">
+      <c r="A35" t="s" s="49">
+        <v>89</v>
+      </c>
+      <c r="B35" s="50">
         <v>1</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-    </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" t="s" s="29">
-        <v>88</v>
-      </c>
-      <c r="B35" t="s" s="33">
-        <v>89</v>
-      </c>
-      <c r="C35" t="s" s="31">
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+    </row>
+    <row r="36" ht="22.35" customHeight="1">
+      <c r="A36" t="s" s="43">
         <v>90</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-    </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" t="s" s="29">
+      <c r="B36" t="s" s="47">
         <v>91</v>
       </c>
-      <c r="B36" t="s" s="33">
-        <v>72</v>
-      </c>
-      <c r="C36" t="s" s="31">
+      <c r="C36" t="s" s="45">
         <v>92</v>
       </c>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" t="s" s="29">
+      <c r="A37" t="s" s="43">
         <v>93</v>
       </c>
-      <c r="B37" t="s" s="33">
+      <c r="B37" t="s" s="47">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s" s="45">
+        <v>94</v>
+      </c>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+    </row>
+    <row r="38" ht="22.35" customHeight="1">
+      <c r="A38" t="s" s="43">
+        <v>95</v>
+      </c>
+      <c r="B38" t="s" s="47">
         <v>32</v>
       </c>
-      <c r="C37" t="s" s="31">
-        <v>94</v>
-      </c>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-    </row>
-    <row r="38" ht="31.25" customHeight="1">
-      <c r="A38" t="s" s="29">
-        <v>95</v>
-      </c>
-      <c r="B38" t="s" s="33">
+      <c r="C38" t="s" s="45">
+        <v>96</v>
+      </c>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
+      <c r="F38" s="46"/>
+      <c r="G38" s="46"/>
+    </row>
+    <row r="39" ht="31.25" customHeight="1">
+      <c r="A39" t="s" s="43">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s" s="47">
         <v>38</v>
       </c>
-      <c r="C38" t="s" s="31">
-        <v>96</v>
-      </c>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-    </row>
-    <row r="39" ht="117.35" customHeight="1">
-      <c r="A39" t="s" s="29">
-        <v>97</v>
-      </c>
-      <c r="B39" t="s" s="33">
+      <c r="C39" t="s" s="45">
         <v>98</v>
       </c>
-      <c r="C39" t="s" s="31">
+      <c r="D39" s="46"/>
+      <c r="E39" s="46"/>
+      <c r="F39" s="46"/>
+      <c r="G39" s="46"/>
+    </row>
+    <row r="40" ht="117.35" customHeight="1">
+      <c r="A40" t="s" s="43">
         <v>99</v>
       </c>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-    </row>
-    <row r="40" ht="22.15" customHeight="1">
-      <c r="A40" t="s" s="29">
+      <c r="B40" t="s" s="47">
         <v>100</v>
       </c>
-      <c r="B40" t="s" s="33">
+      <c r="C40" t="s" s="45">
         <v>101</v>
       </c>
-      <c r="C40" t="s" s="31">
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+    </row>
+    <row r="41" ht="22.15" customHeight="1">
+      <c r="A41" t="s" s="43">
         <v>102</v>
       </c>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-    </row>
-    <row r="41" ht="20" customHeight="1">
-      <c r="A41" t="s" s="29">
+      <c r="B41" t="s" s="47">
         <v>103</v>
       </c>
-      <c r="B41" t="s" s="33">
+      <c r="C41" t="s" s="45">
+        <v>104</v>
+      </c>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+    </row>
+    <row r="42" ht="20" customHeight="1">
+      <c r="A42" t="s" s="43">
+        <v>105</v>
+      </c>
+      <c r="B42" t="s" s="47">
         <v>26</v>
       </c>
-      <c r="C41" t="s" s="31">
-        <v>104</v>
-      </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-    </row>
-    <row r="42" ht="20.3" customHeight="1">
-      <c r="A42" t="s" s="29">
-        <v>105</v>
-      </c>
-      <c r="B42" t="s" s="33">
+      <c r="C42" t="s" s="45">
+        <v>106</v>
+      </c>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" ht="20.3" customHeight="1">
+      <c r="A43" t="s" s="43">
+        <v>107</v>
+      </c>
+      <c r="B43" t="s" s="47">
         <v>26</v>
       </c>
-      <c r="C42" t="s" s="31">
-        <v>106</v>
-      </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-    </row>
-    <row r="43" ht="20.3" customHeight="1">
-      <c r="A43" t="s" s="29">
-        <v>107</v>
-      </c>
-      <c r="B43" t="s" s="33">
-        <v>55</v>
-      </c>
-      <c r="C43" t="s" s="31">
+      <c r="C43" t="s" s="45">
         <v>108</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" ht="20.3" customHeight="1">
-      <c r="A44" t="s" s="29">
+      <c r="A44" t="s" s="43">
         <v>109</v>
       </c>
-      <c r="B44" t="s" s="33">
+      <c r="B44" t="s" s="47">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s" s="45">
         <v>110</v>
       </c>
-      <c r="C44" t="s" s="31">
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" ht="20.3" customHeight="1">
+      <c r="A45" t="s" s="43">
         <v>111</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-    </row>
-    <row r="45" ht="20.3" customHeight="1">
-      <c r="A45" t="s" s="29">
+      <c r="B45" t="s" s="47">
         <v>112</v>
       </c>
-      <c r="B45" t="s" s="33">
-        <v>110</v>
-      </c>
-      <c r="C45" t="s" s="31">
+      <c r="C45" t="s" s="45">
         <v>113</v>
       </c>
-      <c r="D45" s="32"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" ht="20.3" customHeight="1">
-      <c r="A46" t="s" s="29">
+      <c r="A46" t="s" s="43">
         <v>114</v>
       </c>
-      <c r="B46" t="s" s="33">
-        <v>110</v>
-      </c>
-      <c r="C46" t="s" s="31">
+      <c r="B46" t="s" s="47">
+        <v>112</v>
+      </c>
+      <c r="C46" t="s" s="45">
         <v>115</v>
       </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-      <c r="F46" s="32"/>
-      <c r="G46" s="32"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
     </row>
     <row r="47" ht="20.3" customHeight="1">
-      <c r="A47" t="s" s="29">
+      <c r="A47" t="s" s="43">
         <v>116</v>
       </c>
-      <c r="B47" t="s" s="33">
-        <v>110</v>
-      </c>
-      <c r="C47" t="s" s="31">
+      <c r="B47" t="s" s="47">
+        <v>112</v>
+      </c>
+      <c r="C47" t="s" s="45">
         <v>117</v>
       </c>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="46"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" ht="20.3" customHeight="1">
+      <c r="A48" t="s" s="43">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s" s="47">
+        <v>112</v>
+      </c>
+      <c r="C48" t="s" s="45">
+        <v>119</v>
+      </c>
+      <c r="D48" s="46"/>
+      <c r="E48" s="46"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" ht="20.3" customHeight="1">
+      <c r="A49" t="s" s="43">
+        <v>120</v>
+      </c>
+      <c r="B49" t="s" s="47">
+        <v>121</v>
+      </c>
+      <c r="C49" t="s" s="45">
+        <v>122</v>
+      </c>
+      <c r="D49" s="46"/>
+      <c r="E49" s="46"/>
+      <c r="F49" s="46"/>
+      <c r="G49" s="46"/>
+    </row>
+    <row r="50" ht="20.3" customHeight="1">
+      <c r="A50" t="s" s="43">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s" s="47">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s" s="45">
+        <v>125</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" ht="20.3" customHeight="1">
+      <c r="A51" t="s" s="43">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s" s="47">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s" s="45">
+        <v>128</v>
+      </c>
+      <c r="D51" s="46"/>
+      <c r="E51" s="46"/>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+    </row>
+    <row r="52" ht="20.3" customHeight="1">
+      <c r="A52" t="s" s="43">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s" s="47">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s" s="45">
+        <v>130</v>
+      </c>
+      <c r="D52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+    </row>
+    <row r="53" ht="20.3" customHeight="1">
+      <c r="A53" t="s" s="43">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s" s="47">
+        <v>132</v>
+      </c>
+      <c r="C53" t="s" s="45">
+        <v>132</v>
+      </c>
+      <c r="D53" s="46"/>
+      <c r="E53" s="46"/>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46"/>
+    </row>
+    <row r="54" ht="20.3" customHeight="1">
+      <c r="A54" t="s" s="43">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s" s="47">
+        <v>134</v>
+      </c>
+      <c r="C54" t="s" s="45">
+        <v>135</v>
+      </c>
+      <c r="D54" s="46"/>
+      <c r="E54" s="46"/>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46"/>
+    </row>
+    <row r="55" ht="20.3" customHeight="1">
+      <c r="A55" t="s" s="43">
+        <v>136</v>
+      </c>
+      <c r="B55" t="s" s="47">
+        <v>137</v>
+      </c>
+      <c r="C55" t="s" s="45">
+        <v>138</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+    </row>
+    <row r="56" ht="20.3" customHeight="1">
+      <c r="A56" t="s" s="43">
+        <v>139</v>
+      </c>
+      <c r="B56" t="s" s="47">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s" s="45">
+        <v>140</v>
+      </c>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+    </row>
+    <row r="57" ht="20.3" customHeight="1">
+      <c r="A57" t="s" s="43">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s" s="47">
+        <v>142</v>
+      </c>
+      <c r="C57" t="s" s="45">
+        <v>143</v>
+      </c>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46"/>
+    </row>
+    <row r="58" ht="20.3" customHeight="1">
+      <c r="A58" t="s" s="43">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s" s="47">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s" s="45">
+        <v>145</v>
+      </c>
+      <c r="D58" s="46"/>
+      <c r="E58" s="46"/>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46"/>
+    </row>
+    <row r="59" ht="20.3" customHeight="1">
+      <c r="A59" t="s" s="43">
+        <v>146</v>
+      </c>
+      <c r="B59" t="s" s="47">
+        <v>142</v>
+      </c>
+      <c r="C59" t="s" s="45">
+        <v>147</v>
+      </c>
+      <c r="D59" s="46"/>
+      <c r="E59" s="46"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+    </row>
+    <row r="60" ht="20.3" customHeight="1">
+      <c r="A60" t="s" s="43">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s" s="47">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s" s="45">
+        <v>149</v>
+      </c>
+      <c r="D60" s="46"/>
+      <c r="E60" s="46"/>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+    </row>
+    <row r="61" ht="20.3" customHeight="1">
+      <c r="A61" s="43"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="45"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+    </row>
+    <row r="62" ht="14.7" customHeight="1">
+      <c r="A62" s="51"/>
+      <c r="B62" s="51"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
